--- a/data/data05032024clean.xlsx
+++ b/data/data05032024clean.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/mhoejlund_health_sdu_dk/Documents/ed-nma/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_EFD02F8960B86A399CF30DB4C4A2A06148782603" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB5A90C8-6EA0-49F7-A5B6-741E68CC130F}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_EFD02F8960B86A399CF30DB4C4A2A06148782603" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A488C95-416A-421D-8B75-044611154915}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="labels" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AS$403</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12499" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12545" uniqueCount="258">
   <si>
     <t>id</t>
   </si>
@@ -750,6 +751,54 @@
   <si>
     <t>ed_change_cilb</t>
   </si>
+  <si>
+    <t xml:space="preserve">MediaLiteracy                           </t>
+  </si>
+  <si>
+    <t>Multi-component</t>
+  </si>
+  <si>
+    <t>Body image</t>
+  </si>
+  <si>
+    <t>Media literacy</t>
+  </si>
+  <si>
+    <t>Dissonance-based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychoeducation                  </t>
+  </si>
+  <si>
+    <t>One-shot</t>
+  </si>
+  <si>
+    <t>Therapeutic writing</t>
+  </si>
+  <si>
+    <t>Healthy weight</t>
+  </si>
+  <si>
+    <t>Appearance comparison</t>
+  </si>
+  <si>
+    <t>Intuitive eating</t>
+  </si>
+  <si>
+    <t>Cognitive bias modification</t>
+  </si>
+  <si>
+    <t>Physical activity</t>
+  </si>
+  <si>
+    <t>Meaning-centered psychotherapy</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Minimal intervention</t>
+  </si>
 </sst>
 </file>
 
@@ -1108,7 +1157,7 @@
   </sheetPr>
   <dimension ref="A1:AS403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
@@ -52753,4 +52802,203 @@
   <autoFilter ref="A1:AS403" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E801D4D7-9E70-4DD8-833C-1D3F7726DB99}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>